--- a/data/Example_for_training_3.xlsx
+++ b/data/Example_for_training_3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="2760" windowWidth="28160" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="64">
   <si>
     <t>PRODUCT</t>
   </si>
@@ -213,13 +213,19 @@
   </si>
   <si>
     <t>ฉะเชิงเทรา</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,6 +247,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -284,12 +296,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,15 +580,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,8 +634,14 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -668,8 +687,14 @@
       <c r="O2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="3">
+        <v>13.7563309</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>100.5017651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -715,8 +740,14 @@
       <c r="O3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="3">
+        <v>13.7563309</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>100.5017651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -762,8 +793,14 @@
       <c r="O4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="3">
+        <v>13.7563309</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>100.5017651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -809,8 +846,14 @@
       <c r="O5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="3">
+        <v>13.7563309</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>100.5017651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -856,8 +899,14 @@
       <c r="O6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="3">
+        <v>7.5593851000000001</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>99.611006500000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -903,8 +952,14 @@
       <c r="O7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="3">
+        <v>7.5593851000000001</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>99.611006500000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -950,8 +1005,14 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>7.5593851000000001</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>99.611006500000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -997,8 +1058,14 @@
       <c r="O9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>7.5593851000000001</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>99.611006500000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1044,8 +1111,14 @@
       <c r="O10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>8.4303974999999998</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>99.963121899999905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1091,8 +1164,14 @@
       <c r="O11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3">
+        <v>8.4303974999999998</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>99.963121899999905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1138,8 +1217,14 @@
       <c r="O12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>8.4303974999999998</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>99.963121899999905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1185,8 +1270,14 @@
       <c r="O13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>8.4303974999999998</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>99.963121899999905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1232,8 +1323,14 @@
       <c r="O14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>8.4303974999999998</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>99.963121899999905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1279,8 +1376,14 @@
       <c r="O15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>8.4303974999999998</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>99.963121899999905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1326,8 +1429,14 @@
       <c r="O16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3">
+        <v>16.013201500000001</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>103.1615169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1373,8 +1482,14 @@
       <c r="O17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>16.013201500000001</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>103.1615169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1420,8 +1535,14 @@
       <c r="O18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>16.013201500000001</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>103.1615169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1467,8 +1588,14 @@
       <c r="O19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3">
+        <v>16.013201500000001</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>103.1615169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1514,8 +1641,14 @@
       <c r="O20" s="2">
         <v>189954.93</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>16.013201500000001</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>103.1615169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1561,8 +1694,14 @@
       <c r="O21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>16.013201500000001</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>103.1615169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1608,8 +1747,14 @@
       <c r="O22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>16.013201500000001</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>103.1615169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1655,8 +1800,14 @@
       <c r="O23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>16.053819600000001</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>103.6520036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1702,8 +1853,14 @@
       <c r="O24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>16.053819600000001</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>103.6520036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1749,8 +1906,14 @@
       <c r="O25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>16.053819600000001</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>103.6520036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1796,8 +1959,14 @@
       <c r="O26" s="2">
         <v>92962.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>16.053819600000001</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>103.6520036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1843,8 +2012,14 @@
       <c r="O27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>15.118600900000001</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>104.32200949999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1890,8 +2065,14 @@
       <c r="O28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>15.118600900000001</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>104.32200949999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1937,8 +2118,14 @@
       <c r="O29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>15.118600900000001</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>104.32200949999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1984,8 +2171,14 @@
       <c r="O30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>15.118600900000001</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>104.32200949999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -2031,8 +2224,14 @@
       <c r="O31" s="2">
         <v>34797.71</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>17.1545995</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>104.13483650000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -2078,8 +2277,14 @@
       <c r="O32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>17.1545995</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>104.13483650000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
@@ -2125,8 +2330,14 @@
       <c r="O33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>17.1545995</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>104.13483650000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
@@ -2172,8 +2383,14 @@
       <c r="O34" s="2">
         <v>93828.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>17.1545995</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>104.13483650000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
@@ -2219,8 +2436,14 @@
       <c r="O35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>17.1545995</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>104.13483650000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
@@ -2266,8 +2489,14 @@
       <c r="O36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36" s="3">
+        <v>17.1545995</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>104.13483650000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>27</v>
       </c>
@@ -2313,8 +2542,14 @@
       <c r="O37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37" s="3">
+        <v>15.865678300000001</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>104.6257774</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
@@ -2360,8 +2595,14 @@
       <c r="O38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="3">
+        <v>15.865678300000001</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>104.6257774</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>27</v>
       </c>
@@ -2407,8 +2648,14 @@
       <c r="O39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3">
+        <v>15.865678300000001</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>104.6257774</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
@@ -2454,8 +2701,14 @@
       <c r="O40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3">
+        <v>17.413841300000001</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>102.7872325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2501,8 +2754,14 @@
       <c r="O41" s="2">
         <v>26539.78</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>17.413841300000001</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>102.7872325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>27</v>
       </c>
@@ -2548,8 +2807,14 @@
       <c r="O42" s="2">
         <v>22571.66</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>17.413841300000001</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>102.7872325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
@@ -2595,8 +2860,14 @@
       <c r="O43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>17.413841300000001</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>102.7872325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>27</v>
       </c>
@@ -2642,8 +2913,14 @@
       <c r="O44" s="2">
         <v>24425.13</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>17.413841300000001</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>102.7872325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>27</v>
       </c>
@@ -2689,8 +2966,14 @@
       <c r="O45" s="2">
         <v>53733.17</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>17.413841300000001</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>102.7872325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -2736,8 +3019,14 @@
       <c r="O46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>12.707433999999999</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>101.1473517</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>42</v>
       </c>
@@ -2783,8 +3072,14 @@
       <c r="O47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>12.707433999999999</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>101.1473517</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
@@ -2830,8 +3125,14 @@
       <c r="O48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>12.707433999999999</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>101.1473517</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>42</v>
       </c>
@@ -2877,8 +3178,14 @@
       <c r="O49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>12.707433999999999</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>101.1473517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>42</v>
       </c>
@@ -2924,8 +3231,14 @@
       <c r="O50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>12.707433999999999</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>101.1473517</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>42</v>
       </c>
@@ -2971,8 +3284,14 @@
       <c r="O51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>12.707433999999999</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>101.1473517</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
@@ -3018,8 +3337,14 @@
       <c r="O52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>12.707433999999999</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>101.1473517</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>42</v>
       </c>
@@ -3065,8 +3390,14 @@
       <c r="O53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>12.707433999999999</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>101.1473517</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
@@ -3112,8 +3443,14 @@
       <c r="O54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>12.707433999999999</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>101.1473517</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3496,14 @@
       <c r="O55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3">
+        <v>17.486023200000002</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>101.72230020000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>42</v>
       </c>
@@ -3206,8 +3549,14 @@
       <c r="O56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3">
+        <v>17.486023200000002</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>101.72230020000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>42</v>
       </c>
@@ -3253,8 +3602,14 @@
       <c r="O57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>17.486023200000002</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>101.72230020000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>42</v>
       </c>
@@ -3300,8 +3655,14 @@
       <c r="O58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>19.907165599999999</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>99.830955000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>42</v>
       </c>
@@ -3347,8 +3708,14 @@
       <c r="O59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>19.907165599999999</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>99.830955000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>42</v>
       </c>
@@ -3394,8 +3761,14 @@
       <c r="O60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>19.907165599999999</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>99.830955000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>42</v>
       </c>
@@ -3441,8 +3814,14 @@
       <c r="O61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>19.907165599999999</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>99.830955000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>42</v>
       </c>
@@ -3488,8 +3867,14 @@
       <c r="O62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>19.907165599999999</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>99.830955000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>42</v>
       </c>
@@ -3535,8 +3920,14 @@
       <c r="O63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>19.907165599999999</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>99.830955000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>42</v>
       </c>
@@ -3582,8 +3973,14 @@
       <c r="O64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>19.907165599999999</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>99.830955000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>42</v>
       </c>
@@ -3629,8 +4026,14 @@
       <c r="O65" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>16.301669</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>101.11928039999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>42</v>
       </c>
@@ -3676,8 +4079,14 @@
       <c r="O66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>16.301669</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>101.11928039999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>42</v>
       </c>
@@ -3723,8 +4132,14 @@
       <c r="O67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3">
+        <v>16.301669</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>101.11928039999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>42</v>
       </c>
@@ -3770,8 +4185,14 @@
       <c r="O68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>16.301669</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>101.11928039999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>42</v>
       </c>
@@ -3817,8 +4238,14 @@
       <c r="O69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>16.301669</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>101.11928039999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>42</v>
       </c>
@@ -3864,8 +4291,14 @@
       <c r="O70" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>16.301669</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>101.11928039999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>42</v>
       </c>
@@ -3911,8 +4344,14 @@
       <c r="O71" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>16.301669</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>101.11928039999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>51</v>
       </c>
@@ -3958,8 +4397,14 @@
       <c r="O72" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>16.4419355</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>102.8359921</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>51</v>
       </c>
@@ -4005,8 +4450,14 @@
       <c r="O73" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>16.4419355</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>102.8359921</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>51</v>
       </c>
@@ -4052,8 +4503,14 @@
       <c r="O74" s="2">
         <v>57808.79</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>16.4419355</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>102.8359921</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>51</v>
       </c>
@@ -4099,8 +4556,14 @@
       <c r="O75" s="2">
         <v>29324.18</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>16.4419355</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>102.8359921</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>51</v>
       </c>
@@ -4146,8 +4609,14 @@
       <c r="O76" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>16.4419355</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>102.8359921</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>51</v>
       </c>
@@ -4193,8 +4662,14 @@
       <c r="O77" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>16.4419355</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>102.8359921</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>51</v>
       </c>
@@ -4240,8 +4715,14 @@
       <c r="O78" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P78" s="3">
+        <v>14.474489200000001</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>100.11771280000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>51</v>
       </c>
@@ -4287,8 +4768,14 @@
       <c r="O79" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P79" s="3">
+        <v>14.474489200000001</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>100.11771280000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>51</v>
       </c>
@@ -4334,8 +4821,14 @@
       <c r="O80" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="3">
+        <v>14.474489200000001</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>100.11771280000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>51</v>
       </c>
@@ -4381,8 +4874,14 @@
       <c r="O81" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>14.474489200000001</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>100.11771280000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>51</v>
       </c>
@@ -4428,8 +4927,14 @@
       <c r="O82" s="2">
         <v>42527.24</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3">
+        <v>14.5896054</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>100.45505199999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>51</v>
       </c>
@@ -4475,8 +4980,14 @@
       <c r="O83" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>14.5896054</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>100.45505199999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>51</v>
       </c>
@@ -4522,8 +5033,14 @@
       <c r="O84" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>14.5896054</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>100.45505199999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>51</v>
       </c>
@@ -4569,8 +5086,14 @@
       <c r="O85" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>14.5896054</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>100.45505199999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>51</v>
       </c>
@@ -4616,8 +5139,14 @@
       <c r="O86" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>14.5896054</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>100.45505199999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>51</v>
       </c>
@@ -4663,8 +5192,14 @@
       <c r="O87" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>14.5896054</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>100.45505199999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>51</v>
       </c>
@@ -4710,8 +5245,14 @@
       <c r="O88" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>14.5896054</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>100.45505199999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>27</v>
       </c>
@@ -4757,8 +5298,14 @@
       <c r="O89" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>9.1382388999999993</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>99.321748299999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>27</v>
       </c>
@@ -4804,8 +5351,14 @@
       <c r="O90" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3">
+        <v>9.1382388999999993</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>99.321748299999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>27</v>
       </c>
@@ -4851,8 +5404,14 @@
       <c r="O91" s="2">
         <v>38251.51</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>9.1382388999999993</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>99.321748299999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>27</v>
       </c>
@@ -4898,8 +5457,14 @@
       <c r="O92" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>9.1382388999999993</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>99.321748299999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>27</v>
       </c>
@@ -4945,8 +5510,14 @@
       <c r="O93" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>9.1382388999999993</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>99.321748299999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>27</v>
       </c>
@@ -4992,8 +5563,14 @@
       <c r="O94" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>12.964921500000001</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>99.6425883</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>27</v>
       </c>
@@ -5039,8 +5616,14 @@
       <c r="O95" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3">
+        <v>12.964921500000001</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>99.6425883</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>27</v>
       </c>
@@ -5086,8 +5669,14 @@
       <c r="O96" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>12.964921500000001</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>99.6425883</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>27</v>
       </c>
@@ -5133,8 +5722,14 @@
       <c r="O97" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>12.964921500000001</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>99.6425883</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>27</v>
       </c>
@@ -5180,8 +5775,14 @@
       <c r="O98" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>12.964921500000001</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>99.6425883</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>27</v>
       </c>
@@ -5227,8 +5828,14 @@
       <c r="O99" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>12.964921500000001</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>99.6425883</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>27</v>
       </c>
@@ -5274,8 +5881,14 @@
       <c r="O100" s="2">
         <v>28029.27</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>14.022779699999999</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>99.532811499999994</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>27</v>
       </c>
@@ -5320,6 +5933,12 @@
       </c>
       <c r="O101" s="2">
         <v>46845.62</v>
+      </c>
+      <c r="P101" s="3">
+        <v>13.6904194</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>101.0779596</v>
       </c>
     </row>
   </sheetData>
